--- a/7_Surface Matching/Python/Parameter study/Parameter effekt.xlsx
+++ b/7_Surface Matching/Python/Parameter study/Parameter effekt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/max_faber_bwedu_de/Documents/Studium/Master/HiWi/IFP/7_Surface Matching/Python/Parameter study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4DB114E441178AC67DF412E6D0FA02693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592B1553-4DA7-4608-91C0-2A1EA84A0F26}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_AD4DB114E441178AC67DF412E6D0FA02693EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC58A79-9C35-4573-BFE5-BB64DA98F83B}"/>
   <bookViews>
-    <workbookView xWindow="-14385" yWindow="27945" windowWidth="19620" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37305" yWindow="13050" windowWidth="19620" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>relativeSamplingStep</t>
   </si>
@@ -411,7 +411,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +451,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
